--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\Documents\Programming\SoftUni\JS-SPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -198,13 +198,28 @@
   </si>
   <si>
     <t>∞</t>
+  </si>
+  <si>
+    <t>Kibork</t>
+  </si>
+  <si>
+    <t>Dimitar Bonev</t>
+  </si>
+  <si>
+    <t>http://GitHub.com/dbonev91</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +249,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -329,10 +352,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +384,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,20 +408,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E51"/>
+  <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +708,7 @@
     <col min="5" max="5" width="48.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
@@ -691,47 +722,53 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,9 +776,11 @@
       <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -749,17 +788,22 @@
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
+      <c r="E9" s="6">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -769,9 +813,11 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -779,9 +825,11 @@
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -789,9 +837,11 @@
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,9 +849,11 @@
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -809,9 +861,11 @@
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -819,9 +873,11 @@
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -829,9 +885,11 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -839,9 +897,11 @@
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -849,9 +909,11 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -859,9 +921,11 @@
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,9 +933,11 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -879,9 +945,11 @@
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -889,9 +957,11 @@
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -899,9 +969,11 @@
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -909,9 +981,11 @@
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -919,9 +993,11 @@
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -929,9 +1005,11 @@
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -939,9 +1017,11 @@
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -949,9 +1029,11 @@
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
@@ -959,9 +1041,11 @@
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -969,9 +1053,11 @@
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -979,15 +1065,20 @@
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>115</v>
+      </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
@@ -997,7 +1088,9 @@
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
@@ -1007,7 +1100,9 @@
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
@@ -1017,7 +1112,9 @@
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
@@ -1027,7 +1124,9 @@
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
@@ -1037,7 +1136,9 @@
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
@@ -1047,7 +1148,9 @@
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
@@ -1057,7 +1160,9 @@
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
@@ -1067,7 +1172,9 @@
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
@@ -1077,7 +1184,9 @@
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
@@ -1087,7 +1196,9 @@
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
@@ -1097,7 +1208,9 @@
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
@@ -1107,7 +1220,9 @@
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
@@ -1117,7 +1232,9 @@
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
@@ -1127,7 +1244,9 @@
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
@@ -1137,9 +1256,11 @@
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1147,9 +1268,11 @@
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
@@ -1157,9 +1280,14 @@
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="E50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
@@ -1170,7 +1298,9 @@
       <c r="D51" s="11">
         <v>430</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="22">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1182,7 +1312,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>